--- a/matlab/prawn_export_v1/Prawn_Sites.xlsx
+++ b/matlab/prawn_export_v1/Prawn_Sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SCERM\matlab\prawn_export_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6EE8B6-068F-4A9B-83B8-3611B867DC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC4361-FEA5-41B3-BE27-54941F617E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7B35FD21-6A7B-48FD-9ABF-66524DCA8163}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
   <si>
     <t>Lat</t>
   </si>
@@ -375,6 +375,117 @@
   </si>
   <si>
     <t>Offshore</t>
+  </si>
+  <si>
+    <t>SiteCode</t>
+  </si>
+  <si>
+    <t>NS_LH</t>
+  </si>
+  <si>
+    <t>NS_SF</t>
+  </si>
+  <si>
+    <t>NS_SBP</t>
+  </si>
+  <si>
+    <t>NS_SP</t>
+  </si>
+  <si>
+    <t>NS_DP</t>
+  </si>
+  <si>
+    <t>NS_CB</t>
+  </si>
+  <si>
+    <t>NS_GRB</t>
+  </si>
+  <si>
+    <t>NS_CS</t>
+  </si>
+  <si>
+    <t>NS_KP</t>
+  </si>
+  <si>
+    <t>NS_MB</t>
+  </si>
+  <si>
+    <t>NS_PW</t>
+  </si>
+  <si>
+    <t>NS_LB</t>
+  </si>
+  <si>
+    <t>NS_SB</t>
+  </si>
+  <si>
+    <t>NS_MAY</t>
+  </si>
+  <si>
+    <t>NS_FRW</t>
+  </si>
+  <si>
+    <t>NS_RSM</t>
+  </si>
+  <si>
+    <t>NS_COMO</t>
+  </si>
+  <si>
+    <t>NS_SPTH</t>
+  </si>
+  <si>
+    <t>NS_ADD</t>
+  </si>
+  <si>
+    <t>NS_DLK</t>
+  </si>
+  <si>
+    <t>OF_RSM</t>
+  </si>
+  <si>
+    <t>OS_FRW</t>
+  </si>
+  <si>
+    <t>OS_DP</t>
+  </si>
+  <si>
+    <t>OS_CB</t>
+  </si>
+  <si>
+    <t>OS_GRB</t>
+  </si>
+  <si>
+    <t>OS_MAY</t>
+  </si>
+  <si>
+    <t>OS_PTHWTR</t>
+  </si>
+  <si>
+    <t>OS_NRW</t>
+  </si>
+  <si>
+    <t>OS_COMO</t>
+  </si>
+  <si>
+    <t>OS_ADD</t>
+  </si>
+  <si>
+    <t>OS_KP</t>
+  </si>
+  <si>
+    <t>OS_PP</t>
+  </si>
+  <si>
+    <t>OS_PW</t>
+  </si>
+  <si>
+    <t>OS_DLK</t>
+  </si>
+  <si>
+    <t>OS_FWB</t>
+  </si>
+  <si>
+    <t>OS_MOSBAY</t>
   </si>
 </sst>
 </file>
@@ -770,315 +881,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCCA341-FA21-4A7C-B13E-3EBF84597B4D}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -1086,13 +1260,16 @@
         <v>113</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -1100,13 +1277,16 @@
         <v>113</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -1114,13 +1294,16 @@
         <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -1128,13 +1311,16 @@
         <v>113</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -1142,13 +1328,16 @@
         <v>113</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1156,13 +1345,16 @@
         <v>113</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -1170,13 +1362,16 @@
         <v>113</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -1184,13 +1379,16 @@
         <v>113</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -1198,27 +1396,33 @@
         <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -1226,13 +1430,16 @@
         <v>113</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
@@ -1240,13 +1447,16 @@
         <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -1254,13 +1464,16 @@
         <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
@@ -1268,13 +1481,16 @@
         <v>113</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -1282,13 +1498,16 @@
         <v>113</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -1296,9 +1515,12 @@
         <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>109</v>
       </c>
     </row>
